--- a/_static/AI_refs.xlsx
+++ b/_static/AI_refs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kazewindser/Project/AI_trust/_static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9410ACD-6A0D-284C-9A85-69BC8C1CC0B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0829E48F-7996-5D46-9F5C-E146E15E17F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="32000" windowHeight="17500" xr2:uid="{F71067D9-CCD6-364D-BEAD-C24667B2F5D0}"/>
+    <workbookView xWindow="12580" yWindow="500" windowWidth="19420" windowHeight="17500" xr2:uid="{F71067D9-CCD6-364D-BEAD-C24667B2F5D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -498,8 +498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AADA77AD-1310-8748-B3C2-F9ACE064CDAC}">
   <dimension ref="A1:X46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="AB22" sqref="AB22"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -3041,7 +3041,7 @@
         <v>10</v>
       </c>
       <c r="F35" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G35" s="2">
         <v>0</v>
